--- a/Data/onet_varlist.xlsx
+++ b/Data/onet_varlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota-tagami/Desktop/Research/J-Onet_EDA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kota-tagami/Desktop/Research/J-Onet_EDA/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A2143291-E4EA-C44D-AB21-1E13A7CC425E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4447DF14-D860-6F46-A14D-4CC5918C4A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="onet_varlab" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="313">
   <si>
     <t>IPD-ID</t>
   </si>
@@ -721,13 +721,303 @@
   </si>
   <si>
     <t>meta</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>教育と訓練</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウイクト </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">クンレン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学歴_高卒未満</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガクレキ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学歴_高卒</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学歴_専門学校卒</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学歴_短大卒</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学歴_高専卒</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学歴_大卒</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学歴_修士課程卒（修士と同等の専門職学位を含む）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学歴_博士課程卒</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>学歴_わからない</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IPD_04_06_001</t>
+  </si>
+  <si>
+    <t>IPD_04_06_002</t>
+  </si>
+  <si>
+    <t>IPD_04_06_003</t>
+  </si>
+  <si>
+    <t>IPD_04_06_004</t>
+  </si>
+  <si>
+    <t>IPD_04_06_005</t>
+  </si>
+  <si>
+    <t>IPD_04_06_006</t>
+  </si>
+  <si>
+    <t>IPD_04_06_007</t>
+  </si>
+  <si>
+    <t>IPD_04_06_008</t>
+  </si>
+  <si>
+    <t>IPD_04_06_009</t>
+  </si>
+  <si>
+    <t>入職前の訓練期間_特に必要ない</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の訓練期間_1ヶ月以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の訓練期間_1ヶ月超～6ヶ月以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の訓練期間_6ヶ月超～1年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の訓練期間_1年超～2年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の訓練期間_2年超～3年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の訓練期間_3年超～5年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の訓練期間_5年超～10年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の訓練期間_10年超</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の訓練期間_わからない</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IPD_04_07_001</t>
+  </si>
+  <si>
+    <t>IPD_04_07_002</t>
+  </si>
+  <si>
+    <t>IPD_04_07_003</t>
+  </si>
+  <si>
+    <t>IPD_04_07_004</t>
+  </si>
+  <si>
+    <t>IPD_04_07_005</t>
+  </si>
+  <si>
+    <t>IPD_04_07_006</t>
+  </si>
+  <si>
+    <t>IPD_04_07_007</t>
+  </si>
+  <si>
+    <t>IPD_04_07_008</t>
+  </si>
+  <si>
+    <t>IPD_04_07_009</t>
+  </si>
+  <si>
+    <t>IPD_04_07_010</t>
+  </si>
+  <si>
+    <t>入職前の実務経験_特に必要ない</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の実務経験_1ヶ月以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の実務経験_1ヶ月超～6ヶ月以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の実務経験_6ヶ月超～1年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の実務経験_1年超～2年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の実務経験_2年超～3年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の実務経験_3年超～5年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の実務経験_5年超～10年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の実務経験_10年超</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職前の実務経験_わからない</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IPD_04_08_001</t>
+  </si>
+  <si>
+    <t>IPD_04_08_002</t>
+  </si>
+  <si>
+    <t>IPD_04_08_003</t>
+  </si>
+  <si>
+    <t>IPD_04_08_004</t>
+  </si>
+  <si>
+    <t>IPD_04_08_005</t>
+  </si>
+  <si>
+    <t>IPD_04_08_006</t>
+  </si>
+  <si>
+    <t>IPD_04_08_007</t>
+  </si>
+  <si>
+    <t>IPD_04_08_008</t>
+  </si>
+  <si>
+    <t>IPD_04_08_009</t>
+  </si>
+  <si>
+    <t>IPD_04_08_010</t>
+  </si>
+  <si>
+    <t>入職後の訓練期間_必要でない（未経験でも即戦力となる）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職後の訓練期間_1ヶ月以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職後の訓練期間_1ヶ月超～6ヶ月以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職後の訓練期間_6ヶ月超～1年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職後の訓練期間_1年超～2年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職後の訓練期間_2年超～3年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職後の訓練期間_3年超～5年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職後の訓練期間_5年超～10年以下</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職後の訓練期間_10年超</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>入職後の訓練期間_わからない</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IPD_04_09_001</t>
+  </si>
+  <si>
+    <t>IPD_04_09_002</t>
+  </si>
+  <si>
+    <t>IPD_04_09_003</t>
+  </si>
+  <si>
+    <t>IPD_04_09_004</t>
+  </si>
+  <si>
+    <t>IPD_04_09_005</t>
+  </si>
+  <si>
+    <t>IPD_04_09_006</t>
+  </si>
+  <si>
+    <t>IPD_04_09_007</t>
+  </si>
+  <si>
+    <t>IPD_04_09_008</t>
+  </si>
+  <si>
+    <t>IPD_04_09_009</t>
+  </si>
+  <si>
+    <t>IPD_04_09_010</t>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1672,16 +1962,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="69.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2916,7 +3208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>207</v>
       </c>
@@ -2925,6 +3217,552 @@
       </c>
       <c r="C113" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115" t="s">
+        <v>244</v>
+      </c>
+      <c r="D115">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>236</v>
+      </c>
+      <c r="C116" t="s">
+        <v>245</v>
+      </c>
+      <c r="D116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" t="s">
+        <v>246</v>
+      </c>
+      <c r="D117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" t="s">
+        <v>247</v>
+      </c>
+      <c r="D118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" t="s">
+        <v>248</v>
+      </c>
+      <c r="D119">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" t="s">
+        <v>250</v>
+      </c>
+      <c r="D121">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" t="s">
+        <v>251</v>
+      </c>
+      <c r="D122" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" t="s">
+        <v>262</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" t="s">
+        <v>254</v>
+      </c>
+      <c r="C125" t="s">
+        <v>264</v>
+      </c>
+      <c r="D125">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>233</v>
+      </c>
+      <c r="B126" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>233</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s">
+        <v>266</v>
+      </c>
+      <c r="D127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>233</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>233</v>
+      </c>
+      <c r="B129" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>233</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>233</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>233</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" t="s">
+        <v>271</v>
+      </c>
+      <c r="D132" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>233</v>
+      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" t="s">
+        <v>282</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>233</v>
+      </c>
+      <c r="B134" t="s">
+        <v>273</v>
+      </c>
+      <c r="C134" t="s">
+        <v>283</v>
+      </c>
+      <c r="D134">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>233</v>
+      </c>
+      <c r="B135" t="s">
+        <v>274</v>
+      </c>
+      <c r="C135" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>233</v>
+      </c>
+      <c r="B136" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" t="s">
+        <v>285</v>
+      </c>
+      <c r="D136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>233</v>
+      </c>
+      <c r="B137" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>233</v>
+      </c>
+      <c r="B138" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" t="s">
+        <v>287</v>
+      </c>
+      <c r="D138">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>233</v>
+      </c>
+      <c r="B139" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>233</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>233</v>
+      </c>
+      <c r="B141" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" t="s">
+        <v>290</v>
+      </c>
+      <c r="D141">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>233</v>
+      </c>
+      <c r="B142" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142" t="s">
+        <v>291</v>
+      </c>
+      <c r="D142" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" t="s">
+        <v>302</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" t="s">
+        <v>293</v>
+      </c>
+      <c r="C144" t="s">
+        <v>303</v>
+      </c>
+      <c r="D144">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>233</v>
+      </c>
+      <c r="B145" t="s">
+        <v>294</v>
+      </c>
+      <c r="C145" t="s">
+        <v>304</v>
+      </c>
+      <c r="D145">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>233</v>
+      </c>
+      <c r="B146" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146" t="s">
+        <v>305</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>233</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" t="s">
+        <v>306</v>
+      </c>
+      <c r="D147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>233</v>
+      </c>
+      <c r="B148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" t="s">
+        <v>307</v>
+      </c>
+      <c r="D148">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>233</v>
+      </c>
+      <c r="B149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" t="s">
+        <v>308</v>
+      </c>
+      <c r="D149">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>233</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" t="s">
+        <v>309</v>
+      </c>
+      <c r="D150">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>233</v>
+      </c>
+      <c r="B151" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" t="s">
+        <v>310</v>
+      </c>
+      <c r="D151">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>233</v>
+      </c>
+      <c r="B152" t="s">
+        <v>301</v>
+      </c>
+      <c r="C152" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
